--- a/tables/1974/Table 13.xlsx
+++ b/tables/1974/Table 13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emberu\Desktop\Cassava\1974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAdetuyi\OneDrive - CGIAR\WORK\MR PRASAD\2022\7. August\Annual Report\New_Tables\1974\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Table 13.</t>
-  </si>
-  <si>
-    <t>Effect of pruning on cassava root yield it/ha).</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Treatment</t>
   </si>
@@ -55,14 +48,37 @@
   </si>
   <si>
     <t>Defoliation</t>
+  </si>
+  <si>
+    <t>Table name:</t>
+  </si>
+  <si>
+    <t>Effect of pruning on cassava root yield (t/ha).</t>
+  </si>
+  <si>
+    <t>Foot Note:</t>
+  </si>
+  <si>
+    <t>LSD 0.05:</t>
+  </si>
+  <si>
+    <t>Pruning Treatment (T): 4.5 Cultivar: 3.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,12 +102,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,150 +511,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>60444</v>
+      </c>
+      <c r="C3" s="8">
+        <v>53101</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>60444</v>
-      </c>
-      <c r="C2">
-        <v>53101</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>32.6</v>
-      </c>
-      <c r="C3">
-        <v>28.6</v>
-      </c>
-      <c r="D3">
-        <v>23.2</v>
-      </c>
-      <c r="E3">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B7" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="E7" s="2">
         <v>19.8</v>
       </c>
-      <c r="C4">
-        <v>24.3</v>
-      </c>
-      <c r="D4">
-        <v>13.8</v>
-      </c>
-      <c r="E4">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C5">
-        <v>26.1</v>
-      </c>
-      <c r="D5">
-        <v>15.1</v>
-      </c>
-      <c r="E5">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>22.9</v>
-      </c>
-      <c r="C6">
-        <v>24.7</v>
-      </c>
-      <c r="D6">
-        <v>11.8</v>
-      </c>
-      <c r="E6">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
         <v>23.7</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3">
         <v>25.9</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="3">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="4">
         <v>21.9</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>